--- a/biology/Histoire de la zoologie et de la botanique/Anton_August_Heinrich_Lichtenstein/Anton_August_Heinrich_Lichtenstein.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anton_August_Heinrich_Lichtenstein/Anton_August_Heinrich_Lichtenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anton August Heinrich Lichtenstein est un zoologiste allemand, né en 1753 et mort en 1816.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est docteur en théologie et en philosophie, professeur de langues orientales. En 1782, il devient le principal de l'école d'érudition Saint-Jean de Hambourg. Il est bibliothécaire assistant de 1794 à 1796 puis directeur 1796 à 1798 de la bibliothèque publique de Hambourg. En 1798, il devient professeur à l’université d'Helmstedt. Il est l’auteur de Catalogus Rerum Naturalium Rarissimarum (1793) et Catalogus Musei zoologici ditissimi Hamburgi (1796). Il participe également à l’ouvrage de Johann Friedrich Wilhelm Herbst (1743-1807), Natursystem der ungeflügelten Insekten (1797). Il est le père du zoologiste Hinrich Lichtenstein (1780-1857).
 </t>
